--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Översikt NORRBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45121</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45124</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45129</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45132</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45136</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
